--- a/puzzle_results.xlsx
+++ b/puzzle_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02206650000152877</v>
+        <v>0.0220665000015288</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001751499999954831</v>
+        <v>0.00175149999995483</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003033599998161662</v>
+        <v>0.00303359999816166</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002981300000101328</v>
+        <v>0.00298130000010133</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01011669999570586</v>
+        <v>0.0101166999957059</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01279490000160877</v>
+        <v>0.0127949000016088</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01075859999400564</v>
+        <v>0.0107585999940056</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008944000001065433</v>
+        <v>0.000894400000106543</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001791399998182897</v>
+        <v>0.0017913999981829</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008967000030679628</v>
+        <v>0.000896700003067963</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002493699998012744</v>
+        <v>0.00249369999801274</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4549709999992047</v>
+        <v>0.454970999999205</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005800999933853745</v>
+        <v>0.000580099993385375</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,20 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0006930000017746352</v>
+        <v>0.0006930000017746349</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BFS</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.51431379999849</v>
       </c>
     </row>
   </sheetData>
